--- a/Analyses/main study - LLM/output/G3/socially assistive robot frequency table codes.xlsx
+++ b/Analyses/main study - LLM/output/G3/socially assistive robot frequency table codes.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -519,14 +519,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>time saving</t>
+          <t>therapy</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -542,14 +542,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>usability</t>
+          <t>time saving</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -565,14 +565,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>therapy</t>
+          <t>rapid advancement/training</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -588,14 +588,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>versatility</t>
+          <t>usability</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -611,7 +611,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>support</t>
+          <t>scalability</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -657,11 +657,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>scalability</t>
+          <t>support</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,14 +680,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>medical advancement</t>
+          <t>versatility</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -726,11 +726,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>emotional support</t>
+          <t>storage capacity</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>storage capacity</t>
+          <t>emotional support</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>rapid advancement/training</t>
+          <t>medical advancement</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -825,7 +825,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -923,7 +923,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -933,14 +933,14 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>spontaneity</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -956,14 +956,14 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>efficiency</t>
+          <t>Operational Efficiency</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1025,14 +1025,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>Data Security</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1048,14 +1048,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>data security</t>
+          <t>Technical Issues</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1071,14 +1071,14 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>technical issues</t>
+          <t>Potential Physical Harm</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1094,11 +1094,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>physical harm</t>
+          <t>Lack of Regulations</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -1107,7 +1107,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1117,14 +1117,14 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>lack of regulations</t>
+          <t>emotional support and social interaction</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>robotic assistance</t>
+          <t>Assistance and Cognitive Support</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1186,14 +1186,14 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>companion</t>
+          <t>Natural Interactions</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -1209,14 +1209,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>emotional support</t>
+          <t>individualized attention</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1232,14 +1232,14 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>promote interaction</t>
+          <t>dementia care</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1255,11 +1255,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>individualized attention</t>
+          <t>resource availability</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -1278,14 +1278,14 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>resource availability</t>
+          <t>pet alternative</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1301,14 +1301,14 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>therapy success</t>
+          <t>patience</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1324,14 +1324,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>dementia care</t>
+          <t>brain activation</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1347,20 +1347,20 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>patience</t>
+          <t>therapy success</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1370,20 +1370,20 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>help with depression</t>
+          <t>lack of humanity</t>
         </is>
       </c>
       <c r="D41" t="n">
+        <v>9</v>
+      </c>
+      <c r="E41" t="n">
         <v>3</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1393,20 +1393,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Natural Interactions</t>
+          <t>emotional dependence</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1416,20 +1416,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>brain activation</t>
+          <t>Reliance and Trust</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1439,20 +1439,20 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>autism</t>
+          <t>unhealthy relationships</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1462,20 +1462,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>emotional relationships</t>
+          <t>individual response</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1485,20 +1485,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>help with attention</t>
+          <t>lack of emotional understanding</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1508,14 +1508,14 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>pet alternative</t>
+          <t>superficial interaction</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1531,14 +1531,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>dependence</t>
+          <t>loneliness risk</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -1554,11 +1554,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>lack of humanity</t>
+          <t>competence</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -1577,11 +1577,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>superficial interaction</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -1600,14 +1600,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>unhealthy relationships</t>
+          <t>deception</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>loneliness risk</t>
+          <t>technical knowledge</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -1659,7 +1659,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1669,20 +1669,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>impersonal</t>
+          <t>emotional support</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1692,20 +1692,20 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>emotional understanding</t>
+          <t>material</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1715,20 +1715,20 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>technical knowledge</t>
+          <t>feeling of empathy</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1738,20 +1738,20 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1761,20 +1761,20 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>deception</t>
+          <t>therapeutic applications</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1784,20 +1784,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>individual response</t>
+          <t>lack of empathy</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1807,20 +1807,20 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>loss of gestures</t>
+          <t>limitations</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1830,20 +1830,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>material</t>
+          <t>uncanny valley</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1853,20 +1853,20 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>emotional support</t>
+          <t>interaction</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1876,20 +1876,20 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>feeling of empathy</t>
+          <t>technological advancement</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1899,11 +1899,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>deception</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -1912,7 +1912,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>AN</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1922,151 +1922,13 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>calmness</t>
+          <t>emotional impact</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>lack of empathy</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>15</v>
-      </c>
-      <c r="E66" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>limitations</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>9</v>
-      </c>
-      <c r="E67" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>uncanny valley</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>emotional impact</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>2</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>interaction</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>2</v>
-      </c>
-      <c r="E70" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>AN</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>manipulation</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Analyses/main study - LLM/output/G3/socially assistive robot frequency table codes.xlsx
+++ b/Analyses/main study - LLM/output/G3/socially assistive robot frequency table codes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>soft</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rigid</t>
         </is>
       </c>
     </row>
@@ -477,11 +477,9 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -496,15 +494,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>adaptability</t>
+          <t>time saving</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -519,15 +515,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>therapy</t>
+          <t>adaptability</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>8</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,14 +536,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>time saving</t>
+          <t>versatility</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -565,14 +559,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>rapid advancement/training</t>
+          <t>therapy</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -595,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -611,15 +605,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>scalability</t>
+          <t>healthcare</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>5</v>
       </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -634,15 +626,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>healthcare</t>
+          <t>rapid advancement and training</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>5</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -661,7 +651,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -680,15 +670,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>versatility</t>
+          <t>relieving specialists</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -703,15 +691,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>relieving specialists</t>
+          <t>medical advancement</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -726,15 +712,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>storage capacity</t>
+          <t>emotional support</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -749,14 +733,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>multilingual</t>
+          <t>scalability</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -772,15 +756,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>emotional support</t>
+          <t>storage capacity</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -795,15 +777,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>medical advancement</t>
+          <t>multilingual</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -822,7 +802,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -845,7 +825,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -864,15 +844,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>understanding human emotions</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -887,15 +865,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>understanding human emotions</t>
+          <t>language barrier</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -910,20 +886,18 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>language barrier</t>
+          <t>interaction</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -933,15 +907,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>reliability</t>
+          <t>spontaneity</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -956,11 +928,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Operational Efficiency</t>
+          <t>operational efficiency</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -986,7 +958,7 @@
         <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1002,20 +974,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>objectivity</t>
+          <t>reliability</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1025,14 +997,14 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Data Security</t>
+          <t>objectivity</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1048,14 +1020,14 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Technical Issues</t>
+          <t>technical issues</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1071,15 +1043,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Potential Physical Harm</t>
+          <t>data security</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1094,20 +1064,20 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lack of Regulations</t>
+          <t>potential physical harm</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1117,20 +1087,18 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>emotional support and social interaction</t>
+          <t>environmental vulnerabilities</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
-      </c>
-      <c r="E30" t="n">
-        <v>9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HRIP</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1140,14 +1108,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Assistance and Cognitive Support</t>
+          <t>lack of regulations</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1163,14 +1131,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>target demographic</t>
+          <t>emotional support and social interaction</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1186,15 +1154,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Natural Interactions</t>
+          <t>assistance and cognitive support</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
-      </c>
-      <c r="E33" t="n">
-        <v>5</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1209,14 +1175,14 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>individualized attention</t>
+          <t>target demographic</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -1232,11 +1198,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>dementia care</t>
+          <t>individualized attention</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -1259,10 +1225,10 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1278,15 +1244,13 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>pet alternative</t>
+          <t>patience</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1301,15 +1265,13 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>patience</t>
+          <t>dementia care</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1324,14 +1286,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brain activation</t>
+          <t>natural interactions</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -1347,20 +1309,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>therapy success</t>
+          <t>pet alternative</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1370,11 +1330,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>lack of humanity</t>
+          <t>therapy success</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
         <v>3</v>
@@ -1383,7 +1343,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1393,20 +1353,18 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>emotional dependence</t>
+          <t>brain activation</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>7</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HRIN</t>
+          <t>HRIP</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1416,14 +1374,14 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Reliance and Trust</t>
+          <t>haptics</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -1439,14 +1397,14 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>unhealthy relationships</t>
+          <t>lack of humanity</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -1462,14 +1420,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>individual response</t>
+          <t>superficial interaction</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1485,14 +1443,14 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>lack of emotional understanding</t>
+          <t>emotional dependence</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -1508,15 +1466,13 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>superficial interaction</t>
+          <t>technical knowledge</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>3</v>
-      </c>
-      <c r="E47" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1531,15 +1487,13 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>loneliness risk</t>
+          <t>age-related attitudes</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1554,11 +1508,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>competence</t>
+          <t>loneliness risk</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -1577,14 +1531,14 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>unhealthy relationships</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1600,14 +1554,14 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>deception</t>
+          <t>lack of emotional understanding</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1623,14 +1577,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>age-related attitudes</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1646,20 +1600,20 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>technical knowledge</t>
+          <t>individual response</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1669,20 +1623,20 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>emotional support</t>
+          <t>reliance and trust</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1692,20 +1646,18 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>material</t>
+          <t>competence</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AP</t>
+          <t>HRIN</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1715,15 +1667,13 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>feeling of empathy</t>
+          <t>deception</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
-      </c>
-      <c r="E56" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1738,14 +1688,14 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>engagement</t>
+          <t>emotional support</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -1761,20 +1711,20 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>therapeutic applications</t>
+          <t>material</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1784,20 +1734,20 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>lack of empathy</t>
+          <t>connection</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1807,20 +1757,20 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>limitations</t>
+          <t>feeling of empathy</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1830,20 +1780,20 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>uncanny valley</t>
+          <t>therapeutic applications</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>AN</t>
+          <t>AP</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1853,15 +1803,13 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>interaction</t>
+          <t>engagement</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1876,14 +1824,14 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>technological advancement</t>
+          <t>lack of empathy</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -1899,14 +1847,14 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>deception</t>
+          <t>limitations</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -1922,14 +1870,144 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>uncanny valley</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>emotional impact</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>interaction</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>deception</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>manipulation</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ethical concerns</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>technological advancement</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
